--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Fall.121219.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Fall.121219.xlsx_with_dialog_acts.xlsx
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1345,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1383,12 +1383,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1497,12 +1497,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1915,12 +1915,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2257,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2713,12 +2713,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2907,12 +2907,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3097,12 +3097,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3211,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3591,12 +3591,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4047,12 +4047,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4807,12 +4807,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5073,12 +5073,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5381,12 +5381,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5419,12 +5419,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5723,12 +5723,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5837,12 +5837,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6369,12 +6369,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6521,12 +6521,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6597,12 +6597,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7289,12 +7289,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7479,12 +7479,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7555,12 +7555,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8395,12 +8395,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8657,12 +8657,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8961,12 +8961,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9037,12 +9037,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9645,12 +9645,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10481,12 +10481,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10861,12 +10861,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10937,12 +10937,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11279,12 +11279,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11545,12 +11545,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11887,12 +11887,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12039,12 +12039,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13027,12 +13027,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13217,12 +13217,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13863,12 +13863,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14319,12 +14319,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14395,12 +14395,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14623,12 +14623,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14661,12 +14661,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14737,12 +14737,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14965,12 +14965,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15003,12 +15003,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15117,12 +15117,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16295,12 +16295,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16333,12 +16333,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
